--- a/compilado_scores_docking_analiseTatiana.xlsx
+++ b/compilado_scores_docking_analiseTatiana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivbie\Documents\2020 - Projetos mestrado\CYFIP2\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF2015-9A59-468A-AE71-70919392EA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20A6BFF-03AC-4B2F-898C-2F9DAC61EAAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{9E27EB85-3080-47DC-922F-C35DF8474335}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{9E27EB85-3080-47DC-922F-C35DF8474335}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores docking R87C" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,10 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId7"/>
-    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5081" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5158" uniqueCount="370">
   <si>
     <t>Ligand</t>
   </si>
@@ -1152,12 +1154,15 @@
   <si>
     <t>Mantiveram resultados</t>
   </si>
+  <si>
+    <t>Mín. de Score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,13 +1182,6 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1373,7 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1469,20 +1467,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 4" xfId="1" builtinId="19"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1781,6 +1781,82 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Isis Venturi Biembengut" refreshedDate="43911.741246064812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="36" xr:uid="{AE7F5C9C-E569-43C8-95E2-2DD713E23794}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B37" sheet="Repetição 16 melhores chimera"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Ligand" numFmtId="0">
+      <sharedItems count="16">
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_132999"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_16362"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_4474"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_4499"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_5282381"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_5311068"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_6047"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_638678"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_9UQ"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_Formula_C23_H27_N3_O7.txt"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_Formula_C51_H79_N_O13.txt"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_Formula_C9_H13_N_O3.txt"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_Formula_C9_H8_O4.txt"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_ID8"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_LSN"/>
+        <s v="Model_CYFIP2_R87C_DOPE___-161301.70313_minimized_SC2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.1" maxValue="-4.5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Isis Venturi Biembengut" refreshedDate="43911.840909259263" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="36" xr:uid="{E1ECEF52-673F-48F6-8533-110D52D3296A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D1:E37" sheet="Repetição 16 melhores chimera"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Ligand" numFmtId="0">
+      <sharedItems count="16">
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_132999"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_16362"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_4474"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_4499"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_5282381"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_5311068"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_6047"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_638678"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_9UQ"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_Formula_C23_H27_N3_O7.txt"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_Formula_C51_H79_N_O13.txt"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_Formula_C9_H13_N_O3.txt"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_Formula_C9_H8_O4.txt"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_ID8"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_LSN"/>
+        <s v="Model_CYFIP2_WT_DOPE___-160988.06250_minimized_SC2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Score" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-9.6" maxValue="-5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1454">
   <r>
@@ -11379,8 +11455,508 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="36">
+  <r>
+    <x v="0"/>
+    <n v="-7.3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-7.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-7.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-7.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-6.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-6.2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-6.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-6.1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-5.2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-5.2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-5.6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-5.5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="-5.7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="-5.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="-6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="-5.9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="-5.8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="-5.9"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="-5.8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="-8.1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="-7.4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="-6.3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="-5.9"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="-5.5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="-5.5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="-5.4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="-5.7"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="-5.6"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="-6.8"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="-6.5"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="-6.4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="-6.2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="-4.5"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="-4.5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="36">
+  <r>
+    <x v="0"/>
+    <n v="-8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-7.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-9.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-9.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="-9.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-6.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-6.1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-5.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-5.4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-6.4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="-6.2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-6.9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="-6.1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="-6.9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="-6.8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="-7.4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="-6.7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="-6.7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="-6.9"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="-6.1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="-7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="-6.6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="-8.5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="-8.5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="-6.5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="-6"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="-5.8"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="-6.6"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="-6.4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="-8.1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="-7.6"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="-6.8"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="-6.3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="-5.7"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="-5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20491575-3219-42DC-96FA-AE1B43A48BC8}" name="Tabela dinâmica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C52952B0-B455-4C94-8733-40FEE7FDF6C4}" name="Tabela dinâmica4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G42:H59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Mín. de Score" fld="1" subtotal="min" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67005061-D331-43CA-B930-AF89DF758232}" name="Tabela dinâmica3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G22:H39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Mín. de Score" fld="1" subtotal="min" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20491575-3219-42DC-96FA-AE1B43A48BC8}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L1:M18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -11482,8 +12058,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{829D232F-FAB0-4C56-82CB-F69C5B4A0628}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{829D232F-FAB0-4C56-82CB-F69C5B4A0628}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -11633,7 +12209,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03FCAFC7-3C84-4064-AA7B-7EA640C8DAC7}" name="Tabela2" displayName="Tabela2" ref="A1:D2097" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03FCAFC7-3C84-4064-AA7B-7EA640C8DAC7}" name="Tabela2" displayName="Tabela2" ref="A1:D2097" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:D2097" xr:uid="{13AE927A-3975-45C3-92F1-E77FC7C4EBAC}">
     <filterColumn colId="0">
       <filters>
@@ -11819,9 +12395,9 @@
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F0F1D00D-BEDA-48F1-957C-20C5F33784BE}" name="Ligand"/>
-    <tableColumn id="2" xr3:uid="{76203A62-2A85-4404-BF40-330B93C14DC1}" name="Binding Affinity" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{1F00D7A0-916E-4549-BF21-9EF4CF65B139}" name="rmsd/ub" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{911236A3-A959-4EC3-8315-E5205D484154}" name=" rmsd/lb" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{76203A62-2A85-4404-BF40-330B93C14DC1}" name="Binding Affinity" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1F00D7A0-916E-4549-BF21-9EF4CF65B139}" name="rmsd/ub" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{911236A3-A959-4EC3-8315-E5205D484154}" name=" rmsd/lb" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11876,7 +12452,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D294AE46-6AFF-42A4-9DD8-3D628E6E015A}" name="Tabela5" displayName="Tabela5" ref="A22:E38" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D294AE46-6AFF-42A4-9DD8-3D628E6E015A}" name="Tabela5" displayName="Tabela5" ref="A22:E38" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A22:E38" xr:uid="{4D2E4A4D-D0A8-4D0B-A511-3DE767D3F06B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E3D2BC0A-6640-45B2-AF14-ACE6661753A2}" name="Ligand R87C" dataDxfId="5"/>
@@ -11888,6 +12464,22 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E62B8DB1-A4E2-4DF8-A493-99FEAF92037A}" name="Tabela6" displayName="Tabela6" ref="A41:E57" totalsRowShown="0">
+  <autoFilter ref="A41:E57" xr:uid="{7A621AC9-B362-4E4C-975E-D12013974EAE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{43A8B252-85A7-45BF-B623-CA36117C8EE9}" name="Ligand R87C"/>
+    <tableColumn id="2" xr3:uid="{8C3C1585-EEBC-4E2A-8A23-7A88D4D80DC3}" name="Score"/>
+    <tableColumn id="3" xr3:uid="{39819E7A-330F-4FDB-84CB-75310E59DE38}" name="Ligand WT"/>
+    <tableColumn id="4" xr3:uid="{5AECA471-F780-4C73-81B4-EF320C737AC9}" name="Score2"/>
+    <tableColumn id="5" xr3:uid="{69A4F812-F80B-44C8-9901-918DB80C050F}" name="Diferença" dataDxfId="0">
+      <calculatedColumnFormula>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -80382,7 +80974,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -80393,10 +80985,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B89BD85-5256-4594-8F53-64A4B6BDE73E}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80434,10 +81026,12 @@
       <c r="D2" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="47">
+        <v>-8</v>
+      </c>
       <c r="F2">
         <f>B2-E2</f>
-        <v>-7.3</v>
+        <v>0.70000000000000018</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -80451,7 +81045,9 @@
       <c r="D3" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="47">
+        <v>-7.6</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
@@ -80477,7 +81073,9 @@
       <c r="D5" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="47">
+        <v>-9.6</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
@@ -80490,7 +81088,9 @@
       <c r="D6" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="47">
+        <v>-9.6</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
@@ -80503,7 +81103,9 @@
       <c r="D7" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="47"/>
+      <c r="E7" s="47">
+        <v>-9.5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
@@ -80516,7 +81118,9 @@
       <c r="D8" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="47">
+        <v>-6.2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
@@ -80529,7 +81133,9 @@
       <c r="D9" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="47">
+        <v>-6.1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
@@ -80542,7 +81148,9 @@
       <c r="D10" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="47">
+        <v>-5.4</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
@@ -80555,7 +81163,9 @@
       <c r="D11" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="47">
+        <v>-5.4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
@@ -80568,7 +81178,9 @@
       <c r="D12" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="47">
+        <v>-6.4</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
@@ -80581,7 +81193,9 @@
       <c r="D13" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="47">
+        <v>-6.2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
@@ -80594,7 +81208,9 @@
       <c r="D14" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="E14" s="47"/>
+      <c r="E14" s="47">
+        <v>-6.9</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
@@ -80607,7 +81223,9 @@
       <c r="D15" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="E15" s="47"/>
+      <c r="E15" s="47">
+        <v>-6.1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
@@ -80620,7 +81238,9 @@
       <c r="D16" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="47">
+        <v>-6.9</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
@@ -80633,7 +81253,9 @@
       <c r="D17" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="E17" s="47"/>
+      <c r="E17" s="47">
+        <v>-6.8</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
@@ -80646,7 +81268,9 @@
       <c r="D18" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="E18" s="47"/>
+      <c r="E18" s="47">
+        <v>-7.4</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
@@ -80659,7 +81283,9 @@
       <c r="D19" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="E19" s="47">
+        <v>-6.7</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
@@ -80672,7 +81298,9 @@
       <c r="D20" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="47">
+        <v>-6.7</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
@@ -80685,7 +81313,9 @@
       <c r="D21" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="47">
+        <v>-6.9</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
@@ -80698,7 +81328,9 @@
       <c r="D22" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="47"/>
+      <c r="E22" s="47">
+        <v>-6.1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
@@ -80711,7 +81343,9 @@
       <c r="D23" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="47"/>
+      <c r="E23" s="47">
+        <v>-7</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
@@ -80724,31 +81358,39 @@
       <c r="D24" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="47"/>
+      <c r="E24" s="47">
+        <v>-6.6</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52" t="s">
+      <c r="B25" s="47">
+        <v>-6.3</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="47">
+        <v>-8.5</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B26" s="47">
-        <v>-5.5</v>
+        <v>-5.9</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="E26" s="47"/>
+        <v>72</v>
+      </c>
+      <c r="E26" s="47">
+        <v>-8.5</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
@@ -80761,111 +81403,129 @@
       <c r="D27" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="47"/>
+      <c r="E27" s="47">
+        <v>-6.5</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="47">
-        <v>-5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E28" s="47"/>
+      <c r="E28" s="47">
+        <v>-6</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="47">
-        <v>-5.7</v>
+        <v>-5.4</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="E29" s="47"/>
+        <v>349</v>
+      </c>
+      <c r="E29" s="47">
+        <v>-5.8</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="47">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="E30" s="47"/>
+      <c r="E30" s="47">
+        <v>-6.6</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="B31" s="47">
-        <v>-6.8</v>
+        <v>-5.6</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="47"/>
+        <v>351</v>
+      </c>
+      <c r="E31" s="47">
+        <v>-6.4</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>115</v>
       </c>
       <c r="B32" s="47">
-        <v>-6.5</v>
+        <v>-6.8</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="47"/>
+      <c r="E32" s="47">
+        <v>-8.1</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B33" s="47">
-        <v>-6.4</v>
+        <v>-6.5</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="47"/>
+        <v>132</v>
+      </c>
+      <c r="E33" s="47">
+        <v>-7.6</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="47">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="47"/>
+      <c r="E34" s="47">
+        <v>-6.8</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B35" s="47">
-        <v>-4.5</v>
+        <v>-6.2</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="E35" s="47"/>
+        <v>107</v>
+      </c>
+      <c r="E35" s="47">
+        <v>-6.3</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
@@ -80874,19 +81534,36 @@
       <c r="B36" s="47">
         <v>-4.5</v>
       </c>
+      <c r="C36" s="47"/>
       <c r="D36" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="47"/>
+      <c r="E36" s="47">
+        <v>-5.7</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="47"/>
+      <c r="A37" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="47">
+        <v>-4.5</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" s="47">
+        <v>-5</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E38" s="47"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E39" s="47"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -80895,10 +81572,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCDC0B8-E968-4504-861E-F6397663EC74}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80909,7 +81586,8 @@
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" bestFit="1" customWidth="1"/>
@@ -81234,6 +81912,12 @@
       <c r="E22" t="s">
         <v>356</v>
       </c>
+      <c r="G22" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="H22" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
@@ -81252,6 +81936,12 @@
         <f>B23-D23</f>
         <v>0.70000000000000018</v>
       </c>
+      <c r="G23" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="46">
+        <v>-7.3</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
@@ -81270,6 +81960,12 @@
         <f t="shared" ref="E24:E38" si="0">B24-D24</f>
         <v>1.1999999999999993</v>
       </c>
+      <c r="G24" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="46">
+        <v>-7.6</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
@@ -81288,6 +81984,12 @@
         <f t="shared" si="0"/>
         <v>-0.29999999999999982</v>
       </c>
+      <c r="G25" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="46">
+        <v>-6.6</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
@@ -81306,6 +82008,12 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
+      <c r="G26" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="46">
+        <v>-6.4</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
@@ -81324,6 +82032,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="G27" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" s="46">
+        <v>-5.2</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
@@ -81342,6 +82056,12 @@
         <f t="shared" si="0"/>
         <v>1.0999999999999996</v>
       </c>
+      <c r="G28" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="H28" s="46">
+        <v>-5.6</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
@@ -81360,6 +82080,12 @@
         <f t="shared" si="0"/>
         <v>0.80000000000000071</v>
       </c>
+      <c r="G29" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="46">
+        <v>-5.7</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
@@ -81378,6 +82104,12 @@
         <f t="shared" si="0"/>
         <v>-0.20000000000000018</v>
       </c>
+      <c r="G30" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" s="46">
+        <v>-6</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
@@ -81396,6 +82128,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="G31" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="46">
+        <v>-5.9</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
@@ -81414,8 +82152,14 @@
         <f t="shared" si="0"/>
         <v>-1.5999999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="46">
+        <v>-8.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>55</v>
       </c>
@@ -81432,8 +82176,14 @@
         <f t="shared" si="0"/>
         <v>1.2999999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="46">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>19</v>
       </c>
@@ -81450,8 +82200,14 @@
         <f t="shared" si="0"/>
         <v>1.0999999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="46">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>21</v>
       </c>
@@ -81468,8 +82224,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="46">
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>115</v>
       </c>
@@ -81486,8 +82248,14 @@
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="46">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>88</v>
       </c>
@@ -81504,8 +82272,14 @@
         <f t="shared" si="0"/>
         <v>0.60000000000000053</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="46">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>152</v>
       </c>
@@ -81522,17 +82296,449 @@
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="46">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="H39" s="46">
+        <v>-8.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>367</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" t="s">
+        <v>366</v>
+      </c>
+      <c r="E41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42">
+        <v>-7.3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42">
+        <v>-8</v>
+      </c>
+      <c r="E42">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="H42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" s="28">
+        <v>-7.6</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="28">
+        <v>-9.6</v>
+      </c>
+      <c r="E43" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>2</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="H43" s="46">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44">
+        <v>-6.6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44">
+        <v>-6.2</v>
+      </c>
+      <c r="E44">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>-0.39999999999999947</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="H44" s="46">
+        <v>-9.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="28">
+        <v>-6.4</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="28">
+        <v>-5.4</v>
+      </c>
+      <c r="E45" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>-1</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="H45" s="46">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="28">
+        <v>-5.2</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" s="28">
+        <v>-6.4</v>
+      </c>
+      <c r="E46" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="H46" s="46">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="28">
+        <v>-5.6</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="28">
+        <v>-6.9</v>
+      </c>
+      <c r="E47" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="H47" s="46">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48">
+        <v>-5.7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>313</v>
+      </c>
+      <c r="D48">
+        <v>-6.9</v>
+      </c>
+      <c r="E48">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="H48" s="46">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49">
+        <v>-6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>331</v>
+      </c>
+      <c r="D49">
+        <v>-7.4</v>
+      </c>
+      <c r="E49">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="H49" s="46">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="28">
+        <v>-5.9</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="28">
+        <v>-6.9</v>
+      </c>
+      <c r="E50" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="H50" s="46">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="28">
+        <v>-8.1</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="28">
+        <v>-7</v>
+      </c>
+      <c r="E51" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>-1.0999999999999996</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="46">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>-6.3</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="28">
+        <v>-8.5</v>
+      </c>
+      <c r="E52" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="46">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="28">
+        <v>-5.5</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="D53" s="28">
+        <v>-6.5</v>
+      </c>
+      <c r="E53" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="46">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="28">
+        <v>-5.7</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="D54" s="28">
+        <v>-6.6</v>
+      </c>
+      <c r="E54" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>0.89999999999999947</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="H54" s="46">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="28">
+        <v>-6.8</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="28">
+        <v>-8.1</v>
+      </c>
+      <c r="E55" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="H55" s="46">
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56">
+        <v>-6.4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56">
+        <v>-6.8</v>
+      </c>
+      <c r="E56">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>0.39999999999999947</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="46">
+        <v>-8.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="28">
+        <v>-4.5</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="28">
+        <v>-5.7</v>
+      </c>
+      <c r="E57" s="28">
+        <f>Tabela6[[#This Row],[Score]]-Tabela6[[#This Row],[Score2]]</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="46">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="46">
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="H59" s="46">
+        <v>-9.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <tableParts count="2">
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
